--- a/beams.xlsx
+++ b/beams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitri/Library/Caches/Transmit/67C808E8-2226-4E4E-94C0-F333776CD003/31.31.196.94/www/rscc.space/start2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFFD5D-8E68-4333-BF7A-6530A377B8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE8948-3749-9942-8C81-048CF0E3711A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="159">
   <si>
     <t>a</t>
   </si>
@@ -466,15 +466,9 @@
     <t>RV</t>
   </si>
   <si>
-    <t>Ku_main</t>
-  </si>
-  <si>
     <t>./beams/RV-Ku_main.png</t>
   </si>
   <si>
-    <t>Ku_sec</t>
-  </si>
-  <si>
     <t>./beams/RV-Ku_sec.png</t>
   </si>
   <si>
@@ -491,13 +485,25 @@
   </si>
   <si>
     <t>./beams/AM103_C.png</t>
+  </si>
+  <si>
+    <t>./beams/RV_KuB2.png</t>
+  </si>
+  <si>
+    <t>./beams/RV_KuA2.png</t>
+  </si>
+  <si>
+    <t>Сопряжённый виток</t>
+  </si>
+  <si>
+    <t>Основной виток</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -766,35 +772,35 @@
   </sheetPr>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" customWidth="1"/>
-    <col min="10" max="11" width="26.42578125" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="11" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="31.33203125" customWidth="1"/>
     <col min="15" max="15" width="33" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" customWidth="1"/>
+    <col min="16" max="16" width="29.6640625" customWidth="1"/>
+    <col min="17" max="17" width="30.5" customWidth="1"/>
+    <col min="18" max="18" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="35" customWidth="1"/>
-    <col min="20" max="20" width="31.42578125" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="24" width="20.85546875" customWidth="1"/>
+    <col min="20" max="20" width="31.5" customWidth="1"/>
+    <col min="21" max="21" width="31.33203125" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" customWidth="1"/>
+    <col min="23" max="24" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -939,7 +945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1013,7 +1019,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1679,15 +1685,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
         <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
         <v>48</v>
@@ -1750,15 +1756,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1824,7 +1830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
@@ -1853,46 +1859,46 @@
         <v>48</v>
       </c>
       <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
         <v>148</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="s">
         <v>149</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>156</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S15" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" t="s">
         <v>150</v>
-      </c>
-      <c r="M15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" t="s">
-        <v>48</v>
-      </c>
-      <c r="W15" t="s">
-        <v>152</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>48</v>

--- a/beams.xlsx
+++ b/beams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitri/Library/Caches/Transmit/67C808E8-2226-4E4E-94C0-F333776CD003/31.31.196.94/www/rscc.space/start2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CE8948-3749-9942-8C81-048CF0E3711A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B95633-8CAE-415E-884C-0845A1EF0717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11064" yWindow="132" windowWidth="17232" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="167">
   <si>
     <t>a</t>
   </si>
@@ -487,23 +487,47 @@
     <t>./beams/AM103_C.png</t>
   </si>
   <si>
-    <t>./beams/RV_KuB2.png</t>
-  </si>
-  <si>
-    <t>./beams/RV_KuA2.png</t>
-  </si>
-  <si>
-    <t>Сопряжённый виток</t>
-  </si>
-  <si>
-    <t>Основной виток</t>
+    <t>основной виток</t>
+  </si>
+  <si>
+    <t>сопряжённый виток</t>
+  </si>
+  <si>
+    <t>АМУ3</t>
+  </si>
+  <si>
+    <t>АМУ7</t>
+  </si>
+  <si>
+    <t>АМУ4</t>
+  </si>
+  <si>
+    <t>АМУ5</t>
+  </si>
+  <si>
+    <t>АМУ6</t>
+  </si>
+  <si>
+    <t>АТ3</t>
+  </si>
+  <si>
+    <t>АТ4</t>
+  </si>
+  <si>
+    <t>Э-40</t>
+  </si>
+  <si>
+    <t>Э-36</t>
+  </si>
+  <si>
+    <t>АМУ8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -522,6 +546,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -531,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -539,11 +569,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -551,6 +596,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,37 +818,37 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="5" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" customWidth="1"/>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
-    <col min="10" max="11" width="26.5" customWidth="1"/>
-    <col min="12" max="12" width="29.1640625" customWidth="1"/>
+    <col min="4" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="34.109375" customWidth="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1"/>
+    <col min="10" max="11" width="26.44140625" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" customWidth="1"/>
     <col min="13" max="13" width="33.33203125" customWidth="1"/>
     <col min="14" max="14" width="31.33203125" customWidth="1"/>
     <col min="15" max="15" width="33" customWidth="1"/>
     <col min="16" max="16" width="29.6640625" customWidth="1"/>
-    <col min="17" max="17" width="30.5" customWidth="1"/>
-    <col min="18" max="18" width="28.5" customWidth="1"/>
+    <col min="17" max="17" width="30.44140625" customWidth="1"/>
+    <col min="18" max="18" width="28.44140625" customWidth="1"/>
     <col min="19" max="19" width="35" customWidth="1"/>
-    <col min="20" max="20" width="31.5" customWidth="1"/>
+    <col min="20" max="20" width="31.44140625" customWidth="1"/>
     <col min="21" max="21" width="31.33203125" customWidth="1"/>
-    <col min="22" max="22" width="21.1640625" customWidth="1"/>
-    <col min="23" max="24" width="20.83203125" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1"/>
+    <col min="23" max="24" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +922,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -945,7 +993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1019,7 +1067,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1093,7 +1141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1167,7 +1215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1241,7 +1289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1315,7 +1363,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1389,7 +1437,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1463,7 +1511,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1537,7 +1585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1611,7 +1659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1685,7 +1733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>151</v>
       </c>
@@ -1756,7 +1804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>152</v>
       </c>
@@ -1830,7 +1878,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>147</v>
       </c>
@@ -1859,13 +1907,13 @@
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
         <v>148</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s">
         <v>149</v>
@@ -1877,16 +1925,16 @@
         <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="Q15" t="s">
-        <v>156</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>157</v>
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
       </c>
       <c r="S15" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>48</v>
@@ -1903,6 +1951,757 @@
       <c r="X15" s="1" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s">
+        <v>78</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" t="s">
+        <v>122</v>
+      </c>
+      <c r="W18" t="s">
+        <v>123</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" t="s">
+        <v>125</v>
+      </c>
+      <c r="W19" t="s">
+        <v>126</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
+        <v>127</v>
+      </c>
+      <c r="W20" t="s">
+        <v>128</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>109</v>
+      </c>
+      <c r="R21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V21" t="s">
+        <v>129</v>
+      </c>
+      <c r="W21" t="s">
+        <v>130</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" t="s">
+        <v>113</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R22" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" t="s">
+        <v>132</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" t="s">
+        <v>133</v>
+      </c>
+      <c r="W23" t="s">
+        <v>134</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" t="s">
+        <v>121</v>
+      </c>
+      <c r="N24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" t="s">
+        <v>135</v>
+      </c>
+      <c r="W24" t="s">
+        <v>136</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" t="s">
+        <v>141</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="X27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="X28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/beams.xlsx
+++ b/beams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\start\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B95633-8CAE-415E-884C-0845A1EF0717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F87CE3-6C82-0242-8072-87A337A8BDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11064" yWindow="132" windowWidth="17232" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="180">
   <si>
     <t>a</t>
   </si>
@@ -304,24 +304,12 @@
     <t>S1</t>
   </si>
   <si>
-    <t>S1-(c)</t>
-  </si>
-  <si>
-    <t>./beams/AM33_S1-(c).png</t>
-  </si>
-  <si>
     <t>ST1</t>
   </si>
   <si>
-    <t>./beams/AM33_ST1.png</t>
-  </si>
-  <si>
     <t>ST2</t>
   </si>
   <si>
-    <t>./beams/AM33_ST2.png</t>
-  </si>
-  <si>
     <t>./beams/AM3_FC.png</t>
   </si>
   <si>
@@ -397,12 +385,6 @@
     <t>./bands/AT1-Ku.png</t>
   </si>
   <si>
-    <t>./bands/AM33-C.png</t>
-  </si>
-  <si>
-    <t>./bands/AM33-Ku.png</t>
-  </si>
-  <si>
     <t>./bands/AM3-C.png</t>
   </si>
   <si>
@@ -499,9 +481,6 @@
     <t>АМУ7</t>
   </si>
   <si>
-    <t>АМУ4</t>
-  </si>
-  <si>
     <t>АМУ5</t>
   </si>
   <si>
@@ -521,6 +500,66 @@
   </si>
   <si>
     <t>АМУ8</t>
+  </si>
+  <si>
+    <t>./beams/AMU3_C.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU7_С.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU7_Ku.png</t>
+  </si>
+  <si>
+    <t>StK1</t>
+  </si>
+  <si>
+    <t>StK2</t>
+  </si>
+  <si>
+    <t>АМУ4-6</t>
+  </si>
+  <si>
+    <t>./beams/AMU4_6_FK1.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU4_6_FK2.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU4_6_StK1.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU4_6_StK2.png</t>
+  </si>
+  <si>
+    <t>./bands/AMU3-C.png</t>
+  </si>
+  <si>
+    <t>./bands/AMU3-Ku.png</t>
+  </si>
+  <si>
+    <t>./bands/AMU7-C.png</t>
+  </si>
+  <si>
+    <t>./bands/AMU4_6-C.png</t>
+  </si>
+  <si>
+    <t>./bands/AMU7-Ku.png</t>
+  </si>
+  <si>
+    <t>./bands/AMU4_6-Ku.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU4_6_FC1.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU4_6_FC2.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU3_Ku2.png</t>
+  </si>
+  <si>
+    <t>./beams/AMU3_Ku1.png</t>
   </si>
 </sst>
 </file>
@@ -553,12 +592,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -588,18 +633,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,35 +867,35 @@
   </sheetPr>
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="34.109375" customWidth="1"/>
-    <col min="9" max="9" width="31.44140625" customWidth="1"/>
-    <col min="10" max="11" width="26.44140625" customWidth="1"/>
-    <col min="12" max="12" width="29.109375" customWidth="1"/>
+    <col min="4" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" customWidth="1"/>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="10" max="11" width="26.5" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" customWidth="1"/>
     <col min="13" max="13" width="33.33203125" customWidth="1"/>
     <col min="14" max="14" width="31.33203125" customWidth="1"/>
     <col min="15" max="15" width="33" customWidth="1"/>
     <col min="16" max="16" width="29.6640625" customWidth="1"/>
-    <col min="17" max="17" width="30.44140625" customWidth="1"/>
-    <col min="18" max="18" width="28.44140625" customWidth="1"/>
+    <col min="17" max="17" width="30.5" customWidth="1"/>
+    <col min="18" max="18" width="28.5" customWidth="1"/>
     <col min="19" max="19" width="35" customWidth="1"/>
-    <col min="20" max="20" width="31.44140625" customWidth="1"/>
+    <col min="20" max="20" width="31.5" customWidth="1"/>
     <col min="21" max="21" width="31.33203125" customWidth="1"/>
-    <col min="22" max="22" width="21.109375" customWidth="1"/>
-    <col min="23" max="24" width="20.88671875" customWidth="1"/>
+    <col min="22" max="22" width="21.1640625" customWidth="1"/>
+    <col min="23" max="24" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +969,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>24</v>
       </c>
@@ -993,7 +1040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -1064,10 +1111,10 @@
         <v>55</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1141,7 +1188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1206,16 +1253,16 @@
         <v>48</v>
       </c>
       <c r="V5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="W5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1283,21 +1330,21 @@
         <v>48</v>
       </c>
       <c r="W6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X6" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>94</v>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -1318,16 +1365,16 @@
         <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>48</v>
@@ -1347,23 +1394,23 @@
       <c r="S7" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="T7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" t="s">
         <v>48</v>
       </c>
       <c r="V7" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="W7" t="s">
-        <v>126</v>
-      </c>
-      <c r="X7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1371,7 +1418,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -1383,7 +1430,7 @@
         <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
         <v>48</v>
@@ -1392,10 +1439,10 @@
         <v>48</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>48</v>
@@ -1413,7 +1460,7 @@
         <v>75</v>
       </c>
       <c r="Q8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="R8" t="s">
         <v>48</v>
@@ -1428,16 +1475,16 @@
         <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="W8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1445,7 +1492,7 @@
         <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -1457,7 +1504,7 @@
         <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -1469,13 +1516,13 @@
         <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
         <v>48</v>
@@ -1487,7 +1534,7 @@
         <v>75</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="R9" t="s">
         <v>48</v>
@@ -1496,22 +1543,22 @@
         <v>48</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="V9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="W9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1540,10 +1587,10 @@
         <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>48</v>
@@ -1579,13 +1626,13 @@
         <v>48</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1593,13 +1640,13 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
         <v>48</v>
@@ -1617,19 +1664,19 @@
         <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s">
         <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s">
         <v>48</v>
@@ -1650,16 +1697,16 @@
         <v>48</v>
       </c>
       <c r="V11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1667,7 +1714,7 @@
         <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1688,16 +1735,16 @@
         <v>48</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N12" t="s">
         <v>48</v>
@@ -1724,95 +1771,95 @@
         <v>48</v>
       </c>
       <c r="V12" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V13" t="s">
+        <v>134</v>
+      </c>
+      <c r="W13" t="s">
         <v>135</v>
       </c>
-      <c r="W12" t="s">
-        <v>136</v>
-      </c>
-      <c r="X12" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>48</v>
-      </c>
-      <c r="R13" t="s">
-        <v>48</v>
-      </c>
-      <c r="S13" t="s">
-        <v>48</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" t="s">
-        <v>140</v>
-      </c>
-      <c r="W13" t="s">
-        <v>141</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1836,13 +1883,13 @@
         <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s">
         <v>48</v>
@@ -1869,834 +1916,837 @@
         <v>48</v>
       </c>
       <c r="V14" t="s">
+        <v>136</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s">
         <v>142</v>
       </c>
-      <c r="W14" t="s">
+      <c r="L15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" t="s">
         <v>143</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="N15" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+      <c r="P15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" t="s">
+        <v>144</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="M15" t="s">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s">
-        <v>48</v>
-      </c>
-      <c r="O15" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" t="s">
-        <v>48</v>
-      </c>
-      <c r="S15" t="s">
-        <v>48</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V15" t="s">
-        <v>48</v>
-      </c>
-      <c r="W15" t="s">
-        <v>150</v>
-      </c>
-      <c r="X15" s="1" t="s">
+    <row r="16" spans="1:24" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>178</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" t="s">
+        <v>170</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>137</v>
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V17" t="s">
+        <v>172</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" t="s">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" t="s">
-        <v>73</v>
-      </c>
-      <c r="O17" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" t="s">
-        <v>48</v>
-      </c>
-      <c r="U17" t="s">
-        <v>48</v>
-      </c>
-      <c r="V17" t="s">
-        <v>77</v>
-      </c>
-      <c r="W17" t="s">
-        <v>78</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>69</v>
-      </c>
-      <c r="K18" t="s">
-        <v>83</v>
+      <c r="K18" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M18" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" t="s">
-        <v>48</v>
-      </c>
-      <c r="O18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>86</v>
-      </c>
-      <c r="R18" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U18" s="1" t="s">
+      <c r="M18" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
-      </c>
-      <c r="W18" t="s">
-        <v>123</v>
-      </c>
-      <c r="X18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" t="s">
-        <v>97</v>
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" t="s">
-        <v>48</v>
-      </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>48</v>
-      </c>
-      <c r="R19" t="s">
-        <v>48</v>
-      </c>
-      <c r="S19" t="s">
-        <v>48</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V19" t="s">
-        <v>125</v>
-      </c>
-      <c r="W19" t="s">
-        <v>126</v>
-      </c>
-      <c r="X19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" t="s">
-        <v>103</v>
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M20" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" t="s">
-        <v>48</v>
-      </c>
-      <c r="O20" t="s">
-        <v>48</v>
-      </c>
-      <c r="P20" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>104</v>
-      </c>
-      <c r="R20" t="s">
-        <v>48</v>
-      </c>
-      <c r="S20" t="s">
-        <v>48</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" t="s">
-        <v>127</v>
-      </c>
-      <c r="W20" t="s">
-        <v>128</v>
-      </c>
-      <c r="X20" s="1" t="s">
+      <c r="M20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" t="s">
-        <v>107</v>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" t="s">
-        <v>48</v>
-      </c>
-      <c r="O21" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>109</v>
-      </c>
-      <c r="R21" t="s">
-        <v>48</v>
-      </c>
-      <c r="S21" t="s">
-        <v>48</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="V21" t="s">
-        <v>129</v>
-      </c>
-      <c r="W21" t="s">
-        <v>130</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>131</v>
+        <v>48</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K22" t="s">
-        <v>113</v>
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>48</v>
-      </c>
-      <c r="R22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S22" t="s">
-        <v>48</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V22" t="s">
-        <v>48</v>
-      </c>
-      <c r="W22" t="s">
-        <v>132</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="M22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>116</v>
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" t="s">
-        <v>117</v>
-      </c>
-      <c r="N23" t="s">
-        <v>73</v>
-      </c>
-      <c r="O23" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>48</v>
-      </c>
-      <c r="R23" t="s">
-        <v>48</v>
-      </c>
-      <c r="S23" t="s">
-        <v>48</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V23" t="s">
-        <v>133</v>
-      </c>
-      <c r="W23" t="s">
-        <v>134</v>
-      </c>
-      <c r="X23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" t="s">
-        <v>120</v>
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" t="s">
-        <v>121</v>
-      </c>
-      <c r="N24" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" t="s">
-        <v>48</v>
-      </c>
-      <c r="P24" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>48</v>
-      </c>
-      <c r="R24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S24" t="s">
-        <v>48</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V24" t="s">
-        <v>135</v>
-      </c>
-      <c r="W24" t="s">
-        <v>136</v>
-      </c>
-      <c r="X24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" t="s">
-        <v>144</v>
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M25" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" t="s">
-        <v>48</v>
-      </c>
-      <c r="O25" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>48</v>
-      </c>
-      <c r="R25" t="s">
-        <v>48</v>
-      </c>
-      <c r="S25" t="s">
-        <v>48</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25" t="s">
-        <v>140</v>
-      </c>
-      <c r="W25" t="s">
-        <v>141</v>
-      </c>
-      <c r="X25" s="1" t="s">
+      <c r="M25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="L27" s="2"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="L28" s="2"/>
       <c r="T28" s="1"/>
